--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Aanat-Mtnr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Aanat-Mtnr1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7954105</v>
+        <v>2.575056</v>
       </c>
       <c r="H2">
-        <v>3.590821</v>
+        <v>5.150112</v>
       </c>
       <c r="I2">
-        <v>0.2343912616635755</v>
+        <v>0.2861985448204127</v>
       </c>
       <c r="J2">
-        <v>0.1723324938004482</v>
+        <v>0.2146404527606434</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5645321204553334</v>
+        <v>0.809676574784</v>
       </c>
       <c r="R2">
-        <v>3.387192722732</v>
+        <v>4.858059448704</v>
       </c>
       <c r="S2">
-        <v>0.2343912616635755</v>
+        <v>0.2861985448204127</v>
       </c>
       <c r="T2">
-        <v>0.1723324938004482</v>
+        <v>0.2146404527606434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.148446</v>
       </c>
       <c r="I3">
-        <v>0.006459886699803217</v>
+        <v>0.005499560551228268</v>
       </c>
       <c r="J3">
-        <v>0.007124295356048473</v>
+        <v>0.006186761889936853</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>0.140027924232</v>
       </c>
       <c r="S3">
-        <v>0.006459886699803217</v>
+        <v>0.005499560551228268</v>
       </c>
       <c r="T3">
-        <v>0.007124295356048473</v>
+        <v>0.006186761889936853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.541146</v>
+        <v>1.021765666666667</v>
       </c>
       <c r="H4">
-        <v>4.623438</v>
+        <v>3.065297</v>
       </c>
       <c r="I4">
-        <v>0.2011969715826953</v>
+        <v>0.1135617427145114</v>
       </c>
       <c r="J4">
-        <v>0.2218903700495671</v>
+        <v>0.1277519277106676</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4845835642106667</v>
+        <v>0.3212744597471111</v>
       </c>
       <c r="R4">
-        <v>4.361252077896</v>
+        <v>2.891470137724</v>
       </c>
       <c r="S4">
-        <v>0.2011969715826953</v>
+        <v>0.1135617427145114</v>
       </c>
       <c r="T4">
-        <v>0.2218903700495671</v>
+        <v>0.1277519277106676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3476625</v>
+        <v>0.4231475</v>
       </c>
       <c r="H5">
-        <v>0.695325</v>
+        <v>0.846295</v>
       </c>
       <c r="I5">
-        <v>0.04538742087567875</v>
+        <v>0.04702973401137512</v>
       </c>
       <c r="J5">
-        <v>0.03337038834622964</v>
+        <v>0.0352709109955412</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.10931575165</v>
+        <v>0.1330505505233333</v>
       </c>
       <c r="R5">
-        <v>0.6558945099</v>
+        <v>0.7983033031400001</v>
       </c>
       <c r="S5">
-        <v>0.04538742087567875</v>
+        <v>0.04702973401137512</v>
       </c>
       <c r="T5">
-        <v>0.03337038834622964</v>
+        <v>0.0352709109955412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.566582</v>
+        <v>3.063320333333333</v>
       </c>
       <c r="H6">
-        <v>4.699746</v>
+        <v>9.189961</v>
       </c>
       <c r="I6">
-        <v>0.2045176473455221</v>
+        <v>0.3404655361742741</v>
       </c>
       <c r="J6">
-        <v>0.2255525820999379</v>
+        <v>0.3830086394029208</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4925814226480001</v>
+        <v>0.9632018546235557</v>
       </c>
       <c r="R6">
-        <v>4.433232803832</v>
+        <v>8.668816691612001</v>
       </c>
       <c r="S6">
-        <v>0.2045176473455221</v>
+        <v>0.3404655361742741</v>
       </c>
       <c r="T6">
-        <v>0.2255525820999379</v>
+        <v>0.3830086394029208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.359603666666667</v>
+        <v>1.864674666666666</v>
       </c>
       <c r="H7">
-        <v>7.078811</v>
+        <v>5.594023999999999</v>
       </c>
       <c r="I7">
-        <v>0.3080468118327251</v>
+        <v>0.2072448817281985</v>
       </c>
       <c r="J7">
-        <v>0.3397298703477685</v>
+        <v>0.2331413072402901</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.7419317539791112</v>
+        <v>0.5863108985564445</v>
       </c>
       <c r="R7">
-        <v>6.677385785812</v>
+        <v>5.276798087007999</v>
       </c>
       <c r="S7">
-        <v>0.3080468118327251</v>
+        <v>0.2072448817281985</v>
       </c>
       <c r="T7">
-        <v>0.3397298703477685</v>
+        <v>0.2331413072402901</v>
       </c>
     </row>
   </sheetData>
